--- a/build/assets/KPI-IT-V4.xlsx
+++ b/build/assets/KPI-IT-V4.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jintus/Documents/Projet/Serveur/Node/power-point-generator/build/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jintus/Documents/Projet/Serveur/Node/power-point-generator/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35DE04B-B705-7D4A-8102-A6C17918330D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38502C1D-525D-E040-B51C-BC7B019DCFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="32600" windowHeight="20540" activeTab="1" xr2:uid="{27E91DDD-8FA5-4515-B937-B652543FB0BE}"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="21600" activeTab="1" xr2:uid="{27E91DDD-8FA5-4515-B937-B652543FB0BE}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Primaires" sheetId="3" r:id="rId1"/>
     <sheet name="KPI Primaires RG" sheetId="1" r:id="rId2"/>
-    <sheet name="Graphiques" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="283">
   <si>
     <t>Jan</t>
   </si>
@@ -439,12 +439,6 @@
     <t>_Al</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>_El</t>
   </si>
   <si>
@@ -484,6 +478,12 @@
     <t>_BAAN</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>_TIME</t>
+  </si>
+  <si>
     <t>Comment for slide 6</t>
   </si>
   <si>
@@ -694,9 +694,6 @@
     <t>87</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -748,9 +745,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>3 in 6</t>
   </si>
   <si>
@@ -886,25 +880,28 @@
     <t>tv_TTE</t>
   </si>
   <si>
-    <t>Time Spent Run</t>
-  </si>
-  <si>
-    <t>Time Spent Projects</t>
-  </si>
-  <si>
-    <t>Time Spent So!One</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>SoOne</t>
-  </si>
-  <si>
-    <t>_NOVALUE</t>
+    <t>Trend of phishing success</t>
+  </si>
+  <si>
+    <t>img_1</t>
+  </si>
+  <si>
+    <t>Trend of fake domains created</t>
+  </si>
+  <si>
+    <t>Trend of alerts</t>
+  </si>
+  <si>
+    <t>Trend of elearning</t>
+  </si>
+  <si>
+    <t>img_2</t>
+  </si>
+  <si>
+    <t>img_3</t>
+  </si>
+  <si>
+    <t>img_4</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1862,14 +1859,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1906,10 +1895,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1931,10 +1916,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2236,10 +2217,6 @@
     <xf numFmtId="49" fontId="0" fillId="14" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2417,96 +2394,132 @@
     <xf numFmtId="164" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2517,9 +2530,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF0670C0"/>
-      <color rgb="FFFF822F"/>
-      <color rgb="FF402E7D"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -2532,858 +2542,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="402E7D"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Ratio time spent</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="402E7D"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF822F"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-0F49-E742-B7C8-D4ACAB1ECA11}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0670C0"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0F49-E742-B7C8-D4ACAB1ECA11}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="402E7D"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0F49-E742-B7C8-D4ACAB1ECA11}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'KPI Primaires RG'!$R$30:$R$32</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Run</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Project</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SoOne</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'KPI Primaires RG'!$G$30:$G$32</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F49-E742-B7C8-D4ACAB1ECA11}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788DCF3E-F501-1A4B-9635-7244412CEF51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3823,7 +2981,7 @@
       <c r="T4" s="30"/>
     </row>
     <row r="5" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="265" t="s">
+      <c r="B5" s="271" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -3852,7 +3010,7 @@
       <c r="T5" s="35"/>
     </row>
     <row r="6" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="266"/>
+      <c r="B6" s="272"/>
       <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3877,7 +3035,7 @@
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="266"/>
+      <c r="B7" s="272"/>
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
@@ -3902,7 +3060,7 @@
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="266"/>
+      <c r="B8" s="272"/>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
@@ -3927,7 +3085,7 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="266"/>
+      <c r="B9" s="272"/>
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
@@ -3952,7 +3110,7 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="266"/>
+      <c r="B10" s="272"/>
       <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
@@ -3977,7 +3135,7 @@
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="266"/>
+      <c r="B11" s="272"/>
       <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
@@ -4004,7 +3162,7 @@
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="267" t="s">
+      <c r="B12" s="273" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="51" t="s">
@@ -4031,7 +3189,7 @@
       <c r="T12" s="52"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="268"/>
+      <c r="B13" s="274"/>
       <c r="C13" s="69" t="s">
         <v>29</v>
       </c>
@@ -4058,7 +3216,7 @@
       <c r="T13" s="70"/>
     </row>
     <row r="14" spans="2:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="268"/>
+      <c r="B14" s="274"/>
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
@@ -4085,7 +3243,7 @@
       <c r="T14" s="13"/>
     </row>
     <row r="15" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="268"/>
+      <c r="B15" s="274"/>
       <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
@@ -4110,7 +3268,7 @@
       <c r="T15" s="13"/>
     </row>
     <row r="16" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="268"/>
+      <c r="B16" s="274"/>
       <c r="C16" s="12" t="s">
         <v>35</v>
       </c>
@@ -4137,7 +3295,7 @@
       <c r="T16" s="13"/>
     </row>
     <row r="17" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="269"/>
+      <c r="B17" s="275"/>
       <c r="C17" s="53" t="s">
         <v>37</v>
       </c>
@@ -4165,7 +3323,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
-      <c r="B18" s="270" t="s">
+      <c r="B18" s="276" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="37" t="s">
@@ -4193,7 +3351,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
-      <c r="B19" s="271"/>
+      <c r="B19" s="277"/>
       <c r="C19" s="73" t="s">
         <v>41</v>
       </c>
@@ -4219,7 +3377,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
-      <c r="B20" s="271"/>
+      <c r="B20" s="277"/>
       <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
@@ -4245,7 +3403,7 @@
     </row>
     <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="271"/>
+      <c r="B21" s="277"/>
       <c r="C21" s="41" t="s">
         <v>43</v>
       </c>
@@ -4271,7 +3429,7 @@
     </row>
     <row r="22" spans="1:20" s="79" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
-      <c r="B22" s="272"/>
+      <c r="B22" s="278"/>
       <c r="C22" s="41" t="s">
         <v>44</v>
       </c>
@@ -4296,7 +3454,7 @@
       <c r="T22" s="78"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="273" t="s">
+      <c r="B23" s="279" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="44" t="s">
@@ -4325,7 +3483,7 @@
       <c r="T23" s="45"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="274"/>
+      <c r="B24" s="280"/>
       <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
@@ -4352,7 +3510,7 @@
       <c r="T24" s="11"/>
     </row>
     <row r="25" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="B25" s="274"/>
+      <c r="B25" s="280"/>
       <c r="C25" s="10" t="s">
         <v>49</v>
       </c>
@@ -4379,7 +3537,7 @@
       <c r="T25" s="11"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="274"/>
+      <c r="B26" s="280"/>
       <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
@@ -4404,7 +3562,7 @@
       <c r="T26" s="11"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="274"/>
+      <c r="B27" s="280"/>
       <c r="C27" s="10" t="s">
         <v>52</v>
       </c>
@@ -4429,7 +3587,7 @@
       <c r="T27" s="11"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="274"/>
+      <c r="B28" s="280"/>
       <c r="C28" s="71" t="s">
         <v>53</v>
       </c>
@@ -4454,7 +3612,7 @@
       <c r="T28" s="72"/>
     </row>
     <row r="29" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="275"/>
+      <c r="B29" s="281"/>
       <c r="C29" s="46" t="s">
         <v>54</v>
       </c>
@@ -4479,7 +3637,7 @@
       <c r="T29" s="47"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="265" t="s">
+      <c r="B30" s="271" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="34" t="s">
@@ -4506,7 +3664,7 @@
       <c r="T30" s="35"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="266"/>
+      <c r="B31" s="272"/>
       <c r="C31" s="6" t="s">
         <v>57</v>
       </c>
@@ -4531,7 +3689,7 @@
       <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="266"/>
+      <c r="B32" s="272"/>
       <c r="C32" s="6" t="s">
         <v>58</v>
       </c>
@@ -4556,7 +3714,7 @@
       <c r="T32" s="7"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="266"/>
+      <c r="B33" s="272"/>
       <c r="C33" s="6" t="s">
         <v>59</v>
       </c>
@@ -4581,7 +3739,7 @@
       <c r="T33" s="7"/>
     </row>
     <row r="34" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="266"/>
+      <c r="B34" s="272"/>
       <c r="C34" s="6" t="s">
         <v>60</v>
       </c>
@@ -4606,7 +3764,7 @@
       <c r="T34" s="7"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="269" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="49" t="s">
@@ -4633,7 +3791,7 @@
       <c r="T35" s="50"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="264"/>
+      <c r="B36" s="270"/>
       <c r="C36" s="20" t="s">
         <v>63</v>
       </c>
@@ -4658,7 +3816,7 @@
       <c r="T36" s="21"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="264"/>
+      <c r="B37" s="270"/>
       <c r="C37" s="20" t="s">
         <v>64</v>
       </c>
@@ -4685,7 +3843,7 @@
       <c r="T37" s="21"/>
     </row>
     <row r="38" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="264"/>
+      <c r="B38" s="270"/>
       <c r="C38" s="20" t="s">
         <v>66</v>
       </c>
@@ -4710,7 +3868,7 @@
       <c r="T38" s="21"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="257" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="55" t="s">
@@ -4737,7 +3895,7 @@
       <c r="T39" s="56"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="277"/>
+      <c r="B40" s="258"/>
       <c r="C40" s="14" t="s">
         <v>69</v>
       </c>
@@ -4762,7 +3920,7 @@
       <c r="T40" s="15"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="277"/>
+      <c r="B41" s="258"/>
       <c r="C41" s="14" t="s">
         <v>70</v>
       </c>
@@ -4787,7 +3945,7 @@
       <c r="T41" s="15"/>
     </row>
     <row r="42" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="277"/>
+      <c r="B42" s="258"/>
       <c r="C42" s="14" t="s">
         <v>71</v>
       </c>
@@ -4812,7 +3970,7 @@
       <c r="T42" s="57"/>
     </row>
     <row r="43" spans="2:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="B43" s="278" t="s">
+      <c r="B43" s="259" t="s">
         <v>72</v>
       </c>
       <c r="C43" s="58" t="s">
@@ -4839,7 +3997,7 @@
       <c r="T43" s="61"/>
     </row>
     <row r="44" spans="2:20" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="279"/>
+      <c r="B44" s="260"/>
       <c r="C44" s="80" t="s">
         <v>74</v>
       </c>
@@ -4866,7 +4024,7 @@
       <c r="T44" s="65"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="280" t="s">
+      <c r="B45" s="261" t="s">
         <v>76</v>
       </c>
       <c r="C45" s="67" t="s">
@@ -4893,7 +4051,7 @@
       <c r="T45" s="68"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="281"/>
+      <c r="B46" s="262"/>
       <c r="C46" s="16" t="s">
         <v>78</v>
       </c>
@@ -4918,7 +4076,7 @@
       <c r="T46" s="17"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="281"/>
+      <c r="B47" s="262"/>
       <c r="C47" s="16" t="s">
         <v>79</v>
       </c>
@@ -4943,7 +4101,7 @@
       <c r="T47" s="17"/>
     </row>
     <row r="48" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="282"/>
+      <c r="B48" s="263"/>
       <c r="C48" s="18" t="s">
         <v>80</v>
       </c>
@@ -4968,13 +4126,13 @@
       <c r="T48" s="19"/>
     </row>
     <row r="49" spans="2:20" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="283" t="s">
+      <c r="B49" s="264" t="s">
         <v>81</v>
       </c>
       <c r="C49" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D49" s="286" t="s">
+      <c r="D49" s="267" t="s">
         <v>83</v>
       </c>
       <c r="E49" s="88"/>
@@ -4995,11 +4153,11 @@
       <c r="T49" s="82"/>
     </row>
     <row r="50" spans="2:20" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="284"/>
+      <c r="B50" s="265"/>
       <c r="C50" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="287"/>
+      <c r="D50" s="268"/>
       <c r="E50" s="89"/>
       <c r="F50" s="84"/>
       <c r="G50" s="84"/>
@@ -5018,11 +4176,11 @@
       <c r="T50" s="85"/>
     </row>
     <row r="51" spans="2:20" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="284"/>
+      <c r="B51" s="265"/>
       <c r="C51" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="287"/>
+      <c r="D51" s="268"/>
       <c r="E51" s="89"/>
       <c r="F51" s="84"/>
       <c r="G51" s="84"/>
@@ -5041,11 +4199,11 @@
       <c r="T51" s="85"/>
     </row>
     <row r="52" spans="2:20" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="284"/>
+      <c r="B52" s="265"/>
       <c r="C52" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="287"/>
+      <c r="D52" s="268"/>
       <c r="E52" s="89"/>
       <c r="F52" s="84"/>
       <c r="G52" s="84"/>
@@ -5064,11 +4222,11 @@
       <c r="T52" s="85"/>
     </row>
     <row r="53" spans="2:20" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="284"/>
+      <c r="B53" s="265"/>
       <c r="C53" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="287"/>
+      <c r="D53" s="268"/>
       <c r="E53" s="89"/>
       <c r="F53" s="84"/>
       <c r="G53" s="84"/>
@@ -5087,11 +4245,11 @@
       <c r="T53" s="85"/>
     </row>
     <row r="54" spans="2:20" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="284"/>
+      <c r="B54" s="265"/>
       <c r="C54" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="287"/>
+      <c r="D54" s="268"/>
       <c r="E54" s="89"/>
       <c r="F54" s="84"/>
       <c r="G54" s="84"/>
@@ -5110,11 +4268,11 @@
       <c r="T54" s="85"/>
     </row>
     <row r="55" spans="2:20" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="284"/>
+      <c r="B55" s="265"/>
       <c r="C55" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="287"/>
+      <c r="D55" s="268"/>
       <c r="E55" s="89"/>
       <c r="F55" s="84"/>
       <c r="G55" s="84"/>
@@ -5133,11 +4291,11 @@
       <c r="T55" s="85"/>
     </row>
     <row r="56" spans="2:20" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="284"/>
+      <c r="B56" s="265"/>
       <c r="C56" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="287"/>
+      <c r="D56" s="268"/>
       <c r="E56" s="89"/>
       <c r="F56" s="84"/>
       <c r="G56" s="84"/>
@@ -5156,11 +4314,11 @@
       <c r="T56" s="85"/>
     </row>
     <row r="57" spans="2:20" s="83" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="285"/>
+      <c r="B57" s="266"/>
       <c r="C57" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="287"/>
+      <c r="D57" s="268"/>
       <c r="E57" s="89"/>
       <c r="F57" s="86"/>
       <c r="G57" s="86"/>
@@ -5203,17 +4361,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B57"/>
-    <mergeCell ref="D49:D57"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B57"/>
+    <mergeCell ref="D49:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5223,149 +4381,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8215DDD4-9291-4F51-B56C-36BEE95B77D7}">
-  <dimension ref="B1:Y76"/>
+  <dimension ref="B1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76:R76"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" style="127" customWidth="1"/>
-    <col min="2" max="3" width="24.5" style="127" customWidth="1"/>
-    <col min="4" max="4" width="45" style="127" customWidth="1"/>
-    <col min="5" max="5" width="32" style="128" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="127" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="127" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="127" customWidth="1"/>
-    <col min="9" max="17" width="5.1640625" style="127" customWidth="1"/>
-    <col min="18" max="18" width="30.6640625" style="127" customWidth="1"/>
-    <col min="19" max="16384" width="11.5" style="127"/>
+    <col min="1" max="1" width="0.33203125" style="123" customWidth="1"/>
+    <col min="2" max="3" width="24.5" style="123" customWidth="1"/>
+    <col min="4" max="4" width="45" style="123" customWidth="1"/>
+    <col min="5" max="5" width="32" style="124" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="123" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="123" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="123" customWidth="1"/>
+    <col min="9" max="17" width="5.1640625" style="123" customWidth="1"/>
+    <col min="18" max="18" width="30.6640625" style="123" customWidth="1"/>
+    <col min="19" max="16384" width="11.5" style="123"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="130" t="s">
+      <c r="H2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="130" t="s">
+      <c r="J2" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="130" t="s">
+      <c r="L2" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="130" t="s">
+      <c r="M2" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="130" t="s">
+      <c r="N2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="130" t="s">
+      <c r="O2" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="130" t="s">
+      <c r="P2" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="131" t="s">
+      <c r="Q2" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="197"/>
+      <c r="R2" s="193"/>
     </row>
     <row r="3" spans="2:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="132"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="197"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="193"/>
     </row>
     <row r="4" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="133" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="139">
+      <c r="F4" s="135">
         <v>1</v>
       </c>
-      <c r="G4" s="140">
+      <c r="G4" s="136">
         <v>2</v>
       </c>
-      <c r="H4" s="140">
+      <c r="H4" s="136">
         <v>3</v>
       </c>
-      <c r="I4" s="140">
+      <c r="I4" s="136">
         <v>4</v>
       </c>
-      <c r="J4" s="140">
+      <c r="J4" s="136">
         <v>5</v>
       </c>
-      <c r="K4" s="140">
+      <c r="K4" s="136">
         <v>6</v>
       </c>
-      <c r="L4" s="140">
+      <c r="L4" s="136">
         <v>7</v>
       </c>
-      <c r="M4" s="140">
+      <c r="M4" s="136">
         <v>8</v>
       </c>
-      <c r="N4" s="140">
+      <c r="N4" s="136">
         <v>9</v>
       </c>
-      <c r="O4" s="140">
+      <c r="O4" s="136">
         <v>10</v>
       </c>
-      <c r="P4" s="140">
+      <c r="P4" s="136">
         <v>11</v>
       </c>
-      <c r="Q4" s="141">
+      <c r="Q4" s="137">
         <v>12</v>
       </c>
-      <c r="R4" s="209" t="s">
-        <v>250</v>
-      </c>
-      <c r="S4" s="142" t="s">
+      <c r="R4" s="205" t="s">
+        <v>248</v>
+      </c>
+      <c r="S4" s="138" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="289" t="s">
+      <c r="B5" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144" t="s">
+      <c r="C5" s="139"/>
+      <c r="D5" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="145" t="s">
+      <c r="E5" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="F5" s="110" t="s">
         <v>123</v>
       </c>
       <c r="G5" s="91" t="s">
@@ -5380,22 +4538,22 @@
       <c r="N5" s="91"/>
       <c r="O5" s="91"/>
       <c r="P5" s="91"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="146" t="s">
+      <c r="Q5" s="101"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="142" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="289"/>
-      <c r="C6" s="143"/>
-      <c r="D6" s="147" t="s">
+      <c r="B6" s="283"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="111" t="s">
         <v>185</v>
       </c>
       <c r="G6" s="92" t="s">
@@ -5410,22 +4568,22 @@
       <c r="N6" s="92"/>
       <c r="O6" s="92"/>
       <c r="P6" s="92"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="199"/>
-      <c r="S6" s="149" t="s">
+      <c r="Q6" s="102"/>
+      <c r="R6" s="195"/>
+      <c r="S6" s="145" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="289"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="147" t="s">
+      <c r="B7" s="283"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="111" t="s">
         <v>157</v>
       </c>
       <c r="G7" s="92" t="s">
@@ -5440,22 +4598,22 @@
       <c r="N7" s="92"/>
       <c r="O7" s="92"/>
       <c r="P7" s="92"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="199"/>
-      <c r="S7" s="149" t="s">
+      <c r="Q7" s="102"/>
+      <c r="R7" s="195"/>
+      <c r="S7" s="145" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="289"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="147" t="s">
+      <c r="B8" s="283"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="111" t="s">
         <v>187</v>
       </c>
       <c r="G8" s="92" t="s">
@@ -5470,26 +4628,26 @@
       <c r="N8" s="92"/>
       <c r="O8" s="92"/>
       <c r="P8" s="92"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="199"/>
-      <c r="S8" s="149" t="s">
+      <c r="Q8" s="102"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="145" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="289"/>
-      <c r="C9" s="143"/>
-      <c r="D9" s="147" t="s">
+      <c r="B9" s="283"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="111" t="s">
         <v>188</v>
       </c>
       <c r="G9" s="92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H9" s="92"/>
       <c r="I9" s="92"/>
@@ -5500,25 +4658,25 @@
       <c r="N9" s="92"/>
       <c r="O9" s="92"/>
       <c r="P9" s="92"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="199"/>
-      <c r="S9" s="149" t="s">
+      <c r="Q9" s="102"/>
+      <c r="R9" s="195"/>
+      <c r="S9" s="145" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="289"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="147" t="s">
+      <c r="B10" s="283"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="111" t="s">
         <v>189</v>
       </c>
       <c r="H10" s="92"/>
@@ -5530,52 +4688,52 @@
       <c r="N10" s="92"/>
       <c r="O10" s="92"/>
       <c r="P10" s="92"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="199"/>
-      <c r="S10" s="149" t="s">
+      <c r="Q10" s="102"/>
+      <c r="R10" s="195"/>
+      <c r="S10" s="145" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="289"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="139" t="s">
+      <c r="B11" s="283"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="150" t="s">
+      <c r="E11" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="151" t="s">
+      <c r="F11" s="112"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="196"/>
+      <c r="S11" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
+      <c r="W11" s="170"/>
+      <c r="X11" s="170"/>
     </row>
     <row r="12" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="289" t="s">
+      <c r="B12" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="152" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="153" t="s">
+      <c r="E12" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="113" t="s">
         <v>192</v>
       </c>
       <c r="G12" s="93" t="s">
@@ -5590,23 +4748,23 @@
       <c r="N12" s="93"/>
       <c r="O12" s="93"/>
       <c r="P12" s="93"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="201"/>
-      <c r="S12" s="146" t="s">
+      <c r="Q12" s="103"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="Y12" s="175"/>
+      <c r="Y12" s="171"/>
     </row>
     <row r="13" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="289"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="154" t="s">
+      <c r="B13" s="283"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="155" t="s">
+      <c r="E13" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="117" t="s">
+      <c r="F13" s="114" t="s">
         <v>194</v>
       </c>
       <c r="G13" s="94" t="s">
@@ -5621,22 +4779,22 @@
       <c r="N13" s="94"/>
       <c r="O13" s="94"/>
       <c r="P13" s="94"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="202"/>
-      <c r="S13" s="149" t="s">
+      <c r="Q13" s="106"/>
+      <c r="R13" s="198"/>
+      <c r="S13" s="145" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="289"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="154" t="s">
+      <c r="B14" s="283"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="155" t="s">
+      <c r="E14" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="114" t="s">
         <v>198</v>
       </c>
       <c r="G14" s="94" t="s">
@@ -5651,26 +4809,26 @@
       <c r="N14" s="94"/>
       <c r="O14" s="94"/>
       <c r="P14" s="94"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="202"/>
-      <c r="S14" s="149" t="s">
+      <c r="Q14" s="106"/>
+      <c r="R14" s="198"/>
+      <c r="S14" s="145" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="289"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="154" t="s">
+      <c r="B15" s="283"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="155" t="s">
+      <c r="E15" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="117" t="s">
+      <c r="F15" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="94" t="s">
         <v>217</v>
-      </c>
-      <c r="G15" s="94" t="s">
-        <v>218</v>
       </c>
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
@@ -5681,26 +4839,26 @@
       <c r="N15" s="94"/>
       <c r="O15" s="94"/>
       <c r="P15" s="94"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="202"/>
-      <c r="S15" s="149" t="s">
+      <c r="Q15" s="106"/>
+      <c r="R15" s="198"/>
+      <c r="S15" s="145" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="16" x14ac:dyDescent="0.2">
-      <c r="B16" s="289"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="154" t="s">
+      <c r="B16" s="283"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="150" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="155" t="s">
+      <c r="E16" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="117" t="s">
-        <v>263</v>
+      <c r="F16" s="114" t="s">
+        <v>261</v>
       </c>
       <c r="G16" s="94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H16" s="94"/>
       <c r="I16" s="94"/>
@@ -5711,647 +4869,763 @@
       <c r="N16" s="94"/>
       <c r="O16" s="94"/>
       <c r="P16" s="94"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="202"/>
-      <c r="S16" s="149" t="s">
+      <c r="Q16" s="106"/>
+      <c r="R16" s="198"/>
+      <c r="S16" s="145" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="289"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="156" t="s">
+      <c r="B17" s="283"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="157" t="s">
+      <c r="E17" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
       <c r="Q17" s="109"/>
-      <c r="R17" s="203"/>
-      <c r="S17" s="151" t="s">
+      <c r="R17" s="199"/>
+      <c r="S17" s="147" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B18" s="289"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="158" t="s">
+      <c r="B18" s="283"/>
+      <c r="C18" s="282"/>
+      <c r="D18" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="159" t="s">
+      <c r="E18" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="119" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="102">
-        <v>38</v>
-      </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="204"/>
-      <c r="S18" s="146" t="s">
+      <c r="F18" s="292">
+        <v>82</v>
+      </c>
+      <c r="G18" s="293">
+        <v>100</v>
+      </c>
+      <c r="H18" s="293"/>
+      <c r="I18" s="293"/>
+      <c r="J18" s="293"/>
+      <c r="K18" s="293"/>
+      <c r="L18" s="293"/>
+      <c r="M18" s="293"/>
+      <c r="N18" s="293"/>
+      <c r="O18" s="293"/>
+      <c r="P18" s="293"/>
+      <c r="Q18" s="294"/>
+      <c r="R18" s="200"/>
+      <c r="S18" s="142" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="289"/>
-      <c r="C19" s="288"/>
+      <c r="B19" s="283"/>
+      <c r="C19" s="282"/>
       <c r="D19" s="154" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="285" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="286">
+        <f>IF(G18,G18-F18,"")</f>
+        <v>18</v>
+      </c>
+      <c r="H19" s="286" t="str">
+        <f>IF(H18,H18-G18,"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="286" t="str">
+        <f t="shared" ref="I19:Q19" si="0">IF(I18,I18-H18,"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="286" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="286" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L19" s="286" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M19" s="286" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N19" s="286" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O19" s="286" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P19" s="286" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q19" s="295" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R19" s="287"/>
+      <c r="S19" s="177" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="283"/>
+      <c r="C20" s="282"/>
+      <c r="D20" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="155" t="s">
+      <c r="E20" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="94" t="s">
+      <c r="F20" s="172">
+        <v>20</v>
+      </c>
+      <c r="G20" s="173">
+        <v>17</v>
+      </c>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="288"/>
+      <c r="R20" s="198"/>
+      <c r="S20" s="145" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="283"/>
+      <c r="C21" s="282"/>
+      <c r="D21" s="150" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" s="151" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="285" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" s="286">
+        <f>IF(G20,G20-F20,"")</f>
+        <v>-3</v>
+      </c>
+      <c r="H21" s="286" t="str">
+        <f>IF(H20,H20-G20,"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="286" t="str">
+        <f t="shared" ref="I21" si="1">IF(I20,I20-H20,"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="286" t="str">
+        <f t="shared" ref="J21" si="2">IF(J20,J20-I20,"")</f>
+        <v/>
+      </c>
+      <c r="K21" s="286" t="str">
+        <f t="shared" ref="K21" si="3">IF(K20,K20-J20,"")</f>
+        <v/>
+      </c>
+      <c r="L21" s="286" t="str">
+        <f t="shared" ref="L21" si="4">IF(L20,L20-K20,"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="286" t="str">
+        <f t="shared" ref="M21" si="5">IF(M20,M20-L20,"")</f>
+        <v/>
+      </c>
+      <c r="N21" s="286" t="str">
+        <f t="shared" ref="N21" si="6">IF(N20,N20-M20,"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="286" t="str">
+        <f t="shared" ref="O21" si="7">IF(O20,O20-N20,"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="286" t="str">
+        <f t="shared" ref="P21" si="8">IF(P20,P20-O20,"")</f>
+        <v/>
+      </c>
+      <c r="Q21" s="295" t="str">
+        <f t="shared" ref="Q21" si="9">IF(Q20,Q20-P20,"")</f>
+        <v/>
+      </c>
+      <c r="R21" s="198"/>
+      <c r="S21" s="145" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="283"/>
+      <c r="C22" s="282"/>
+      <c r="D22" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="172">
+        <v>300</v>
+      </c>
+      <c r="G22" s="173">
+        <v>300</v>
+      </c>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="288"/>
+      <c r="R22" s="198"/>
+      <c r="S22" s="145" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="283"/>
+      <c r="C23" s="282"/>
+      <c r="D23" s="150" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="151" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="285" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="286">
+        <f>IF(G22,G22-F22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="286" t="str">
+        <f>IF(H22,H22-G22,"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="286" t="str">
+        <f t="shared" ref="I23" si="10">IF(I22,I22-H22,"")</f>
+        <v/>
+      </c>
+      <c r="J23" s="286" t="str">
+        <f t="shared" ref="J23" si="11">IF(J22,J22-I22,"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="286" t="str">
+        <f t="shared" ref="K23" si="12">IF(K22,K22-J22,"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="286" t="str">
+        <f t="shared" ref="L23" si="13">IF(L22,L22-K22,"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="286" t="str">
+        <f t="shared" ref="M23" si="14">IF(M22,M22-L22,"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="286" t="str">
+        <f t="shared" ref="N23" si="15">IF(N22,N22-M22,"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="286" t="str">
+        <f t="shared" ref="O23" si="16">IF(O22,O22-N22,"")</f>
+        <v/>
+      </c>
+      <c r="P23" s="286" t="str">
+        <f t="shared" ref="P23" si="17">IF(P22,P22-O22,"")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="295" t="str">
+        <f t="shared" ref="Q23" si="18">IF(Q22,Q22-P22,"")</f>
+        <v/>
+      </c>
+      <c r="R23" s="198"/>
+      <c r="S23" s="145" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="283"/>
+      <c r="C24" s="282"/>
+      <c r="D24" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="172">
+        <v>32</v>
+      </c>
+      <c r="G24" s="173">
+        <v>28</v>
+      </c>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
+      <c r="O24" s="173"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="288"/>
+      <c r="R24" s="198"/>
+      <c r="S24" s="145" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="283"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="157" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="158" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="285" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="286">
+        <f>IF(G24,G24-F24,"")</f>
+        <v>-4</v>
+      </c>
+      <c r="H25" s="286" t="str">
+        <f>IF(H24,H24-G24,"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="286" t="str">
+        <f t="shared" ref="I25" si="19">IF(I24,I24-H24,"")</f>
+        <v/>
+      </c>
+      <c r="J25" s="286" t="str">
+        <f t="shared" ref="J25" si="20">IF(J24,J24-I24,"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="286" t="str">
+        <f t="shared" ref="K25" si="21">IF(K24,K24-J24,"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="286" t="str">
+        <f t="shared" ref="L25" si="22">IF(L24,L24-K24,"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="286" t="str">
+        <f t="shared" ref="M25" si="23">IF(M24,M24-L24,"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="286" t="str">
+        <f t="shared" ref="N25" si="24">IF(N24,N24-M24,"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="286" t="str">
+        <f t="shared" ref="O25" si="25">IF(O24,O24-N24,"")</f>
+        <v/>
+      </c>
+      <c r="P25" s="286" t="str">
+        <f t="shared" ref="P25" si="26">IF(P24,P24-O24,"")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="295" t="str">
+        <f t="shared" ref="Q25" si="27">IF(Q24,Q24-P24,"")</f>
+        <v/>
+      </c>
+      <c r="R25" s="201"/>
+      <c r="S25" s="159" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="283"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="157" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="158" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="115"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="201"/>
+      <c r="S26" s="147" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="283"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="149" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="289" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" s="290" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
+      <c r="K27" s="290"/>
+      <c r="L27" s="290"/>
+      <c r="M27" s="290"/>
+      <c r="N27" s="290"/>
+      <c r="O27" s="290"/>
+      <c r="P27" s="290"/>
+      <c r="Q27" s="291"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="214" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="283"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="150" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="172">
+        <v>345</v>
+      </c>
+      <c r="G28" s="173">
+        <v>365</v>
+      </c>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="206"/>
+      <c r="R28" s="211"/>
+      <c r="S28" s="215" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="283"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="150" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="151" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="150" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" s="182">
+        <f>IF(G28,(G28-F28)/F28*100,"")</f>
+        <v>5.7971014492753623</v>
+      </c>
+      <c r="H29" s="182" t="str">
+        <f t="shared" ref="H29:Q29" si="28">IF(H28,(H28-G28)/G28*100,"")</f>
+        <v/>
+      </c>
+      <c r="I29" s="182" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J29" s="182" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K29" s="182" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L29" s="182" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M29" s="182" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="N29" s="182" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="O29" s="182" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="P29" s="182" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="Q29" s="207" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="R29" s="252"/>
+      <c r="S29" s="215" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B30" s="283"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="208"/>
+      <c r="R30" s="212"/>
+      <c r="S30" s="215" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" s="283"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="150" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="151" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="114" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="208"/>
+      <c r="R31" s="212"/>
+      <c r="S31" s="215" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="283"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="153" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="115"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="209"/>
+      <c r="R32" s="213"/>
+      <c r="S32" s="216" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B33" s="283"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="148" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="149" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="113" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="202"/>
-      <c r="S19" s="149" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="289"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="154" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="155" t="s">
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="197"/>
+      <c r="S33" s="142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B34" s="283"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="150" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="114" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="114"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="198"/>
+      <c r="S34" s="145" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="283"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="157" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="158" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="116"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="201"/>
+      <c r="S35" s="159" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="283"/>
+      <c r="C36" s="282"/>
+      <c r="D36" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="117" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="202"/>
-      <c r="S20" s="149" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="289"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="154" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="117" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="94" t="s">
-        <v>231</v>
-      </c>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="202"/>
-      <c r="S21" s="149" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="289"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="161" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="120"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="205"/>
-      <c r="S22" s="151" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B23" s="289"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="153" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="116" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="210"/>
-      <c r="R23" s="215"/>
-      <c r="S23" s="219" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B24" s="289"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="154" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="155" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="176">
-        <v>345</v>
-      </c>
-      <c r="G24" s="177">
-        <v>365</v>
-      </c>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="177"/>
-      <c r="M24" s="177"/>
-      <c r="N24" s="177"/>
-      <c r="O24" s="177"/>
-      <c r="P24" s="177"/>
-      <c r="Q24" s="211"/>
-      <c r="R24" s="216"/>
-      <c r="S24" s="220" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="289"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="154" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="155" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" s="154" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="186">
-        <f>IF(G24,(G24-F24)/F24*100,"")</f>
-        <v>5.7971014492753623</v>
-      </c>
-      <c r="H25" s="186" t="str">
-        <f t="shared" ref="H25:Q25" si="0">IF(H24,(H24-G24)/G24*100,"")</f>
-        <v/>
-      </c>
-      <c r="I25" s="186" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J25" s="186" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K25" s="186" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L25" s="186" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M25" s="186" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N25" s="186" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O25" s="186" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P25" s="186" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q25" s="212" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R25" s="257"/>
-      <c r="S25" s="220" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B26" s="289"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="154" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="155" t="s">
-        <v>136</v>
-      </c>
-      <c r="F26" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="213"/>
-      <c r="R26" s="217"/>
-      <c r="S26" s="220" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B27" s="289"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="155" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="G27" s="94" t="s">
-        <v>203</v>
-      </c>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="213"/>
-      <c r="R27" s="217"/>
-      <c r="S27" s="220" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="289"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="156" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="157" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="118"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="214"/>
-      <c r="R28" s="218"/>
-      <c r="S28" s="221" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B29" s="289"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="153" t="s">
+      <c r="F36" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="197"/>
+      <c r="S36" s="142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="283"/>
+      <c r="C37" s="282"/>
+      <c r="D37" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="201"/>
-      <c r="S29" s="146" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B30" s="289"/>
-      <c r="C30" s="261"/>
-      <c r="D30" s="154" t="s">
-        <v>277</v>
-      </c>
-      <c r="E30" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="176">
-        <v>35</v>
-      </c>
-      <c r="G30" s="176">
-        <v>37</v>
-      </c>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="177"/>
-      <c r="M30" s="177"/>
-      <c r="N30" s="177"/>
-      <c r="O30" s="177"/>
-      <c r="P30" s="177"/>
-      <c r="Q30" s="262"/>
-      <c r="R30" s="202" t="s">
-        <v>280</v>
-      </c>
-      <c r="S30" s="149" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" s="289"/>
-      <c r="C31" s="261"/>
-      <c r="D31" s="154" t="s">
-        <v>278</v>
-      </c>
-      <c r="E31" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="176">
-        <v>15</v>
-      </c>
-      <c r="G31" s="176">
-        <v>13</v>
-      </c>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="177"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="177"/>
-      <c r="P31" s="177"/>
-      <c r="Q31" s="262"/>
-      <c r="R31" s="202" t="s">
-        <v>281</v>
-      </c>
-      <c r="S31" s="149" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="289"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="154" t="s">
-        <v>279</v>
-      </c>
-      <c r="E32" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="176">
-        <v>50</v>
-      </c>
-      <c r="G32" s="176">
-        <v>50</v>
-      </c>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="262"/>
-      <c r="R32" s="202" t="s">
-        <v>282</v>
-      </c>
-      <c r="S32" s="149" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="289"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="161" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="120"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="205"/>
-      <c r="S33" s="163" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B34" s="289"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="152" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="153" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" s="93" t="s">
+      <c r="F37" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="201"/>
-      <c r="S34" s="146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B35" s="289"/>
-      <c r="C35" s="288"/>
-      <c r="D35" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="117" t="s">
+      <c r="G37" s="94" t="s">
         <v>227</v>
-      </c>
-      <c r="G35" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="202"/>
-      <c r="S35" s="149" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="289"/>
-      <c r="C36" s="288"/>
-      <c r="D36" s="154" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="117" t="s">
-        <v>207</v>
-      </c>
-      <c r="G36" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="202"/>
-      <c r="S36" s="149" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="289"/>
-      <c r="C37" s="288"/>
-      <c r="D37" s="154" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="G37" s="94" t="s">
-        <v>230</v>
       </c>
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
@@ -6362,176 +5636,172 @@
       <c r="N37" s="94"/>
       <c r="O37" s="94"/>
       <c r="P37" s="94"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="202"/>
-      <c r="S37" s="149" t="s">
+      <c r="Q37" s="106"/>
+      <c r="R37" s="198"/>
+      <c r="S37" s="145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="283"/>
+      <c r="C38" s="282"/>
+      <c r="D38" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="198"/>
+      <c r="S38" s="145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="283"/>
+      <c r="C39" s="282"/>
+      <c r="D39" s="150" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="198"/>
+      <c r="S39" s="145" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B38" s="289"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="161" t="s">
+    <row r="40" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B40" s="283"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="157" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="158" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="116" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="E38" s="162" t="s">
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="201"/>
+      <c r="S40" s="159" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="283"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="158" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="116"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="201"/>
+      <c r="S41" s="159" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="283"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="148" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="149" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="197"/>
+      <c r="S42" s="142" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="283"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="150" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="120" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" s="110" t="s">
-        <v>267</v>
-      </c>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="205"/>
-      <c r="S38" s="163" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="289"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="161" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="120"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="205"/>
-      <c r="S39" s="163" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B40" s="289"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="152" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="153" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="116" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="201"/>
-      <c r="S40" s="146" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="289"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="154" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="117" t="s">
-        <v>258</v>
-      </c>
-      <c r="G41" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="H41" s="94"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="S41" s="149" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="289"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="154" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="117" t="s">
-        <v>259</v>
-      </c>
-      <c r="G42" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="108"/>
-      <c r="R42" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="S42" s="149" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="289"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="154" t="s">
-        <v>245</v>
-      </c>
-      <c r="E43" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="117" t="s">
-        <v>126</v>
+      <c r="F43" s="114" t="s">
+        <v>256</v>
       </c>
       <c r="G43" s="94" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
@@ -6542,28 +5812,28 @@
       <c r="N43" s="94"/>
       <c r="O43" s="94"/>
       <c r="P43" s="94"/>
-      <c r="Q43" s="108"/>
-      <c r="R43" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="S43" s="149" t="s">
-        <v>254</v>
+      <c r="Q43" s="106"/>
+      <c r="R43" s="198" t="s">
+        <v>249</v>
+      </c>
+      <c r="S43" s="145" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="289"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="154" t="s">
-        <v>246</v>
-      </c>
-      <c r="E44" s="155" t="s">
+      <c r="B44" s="283"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="150" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="117" t="s">
-        <v>126</v>
+      <c r="F44" s="114" t="s">
+        <v>257</v>
       </c>
       <c r="G44" s="94" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="H44" s="94"/>
       <c r="I44" s="94"/>
@@ -6574,24 +5844,24 @@
       <c r="N44" s="94"/>
       <c r="O44" s="94"/>
       <c r="P44" s="94"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="202" t="s">
+      <c r="Q44" s="106"/>
+      <c r="R44" s="198" t="s">
+        <v>249</v>
+      </c>
+      <c r="S44" s="145" t="s">
         <v>251</v>
       </c>
-      <c r="S44" s="149" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="45" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="289"/>
-      <c r="C45" s="172"/>
-      <c r="D45" s="154" t="s">
-        <v>247</v>
-      </c>
-      <c r="E45" s="155" t="s">
+      <c r="B45" s="283"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="150" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="117" t="s">
+      <c r="F45" s="114" t="s">
         <v>126</v>
       </c>
       <c r="G45" s="94" t="s">
@@ -6606,28 +5876,28 @@
       <c r="N45" s="94"/>
       <c r="O45" s="94"/>
       <c r="P45" s="94"/>
-      <c r="Q45" s="108"/>
-      <c r="R45" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="S45" s="149" t="s">
-        <v>256</v>
+      <c r="Q45" s="106"/>
+      <c r="R45" s="198" t="s">
+        <v>249</v>
+      </c>
+      <c r="S45" s="145" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="289"/>
-      <c r="C46" s="172"/>
-      <c r="D46" s="154" t="s">
-        <v>248</v>
-      </c>
-      <c r="E46" s="155" t="s">
+      <c r="B46" s="283"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="117" t="s">
-        <v>260</v>
+      <c r="F46" s="114" t="s">
+        <v>126</v>
       </c>
       <c r="G46" s="94" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="H46" s="94"/>
       <c r="I46" s="94"/>
@@ -6638,28 +5908,28 @@
       <c r="N46" s="94"/>
       <c r="O46" s="94"/>
       <c r="P46" s="94"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="S46" s="149" t="s">
-        <v>257</v>
+      <c r="Q46" s="106"/>
+      <c r="R46" s="198" t="s">
+        <v>249</v>
+      </c>
+      <c r="S46" s="145" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="289"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="154" t="s">
-        <v>249</v>
-      </c>
-      <c r="E47" s="155" t="s">
+      <c r="B47" s="283"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="150" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="117" t="s">
-        <v>261</v>
+      <c r="F47" s="114" t="s">
+        <v>126</v>
       </c>
       <c r="G47" s="94" t="s">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="H47" s="94"/>
       <c r="I47" s="94"/>
@@ -6670,417 +5940,419 @@
       <c r="N47" s="94"/>
       <c r="O47" s="94"/>
       <c r="P47" s="94"/>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="S47" s="149" t="s">
+      <c r="Q47" s="106"/>
+      <c r="R47" s="198" t="s">
+        <v>249</v>
+      </c>
+      <c r="S47" s="145" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="283"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="150" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="94"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="106"/>
+      <c r="R48" s="198" t="s">
+        <v>249</v>
+      </c>
+      <c r="S48" s="145" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="283"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="150" t="s">
+        <v>247</v>
+      </c>
+      <c r="E49" s="151" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+      <c r="K49" s="94"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="106"/>
+      <c r="R49" s="198" t="s">
+        <v>249</v>
+      </c>
+      <c r="S49" s="145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="283"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="157" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="158" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="116"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="109"/>
+      <c r="R50" s="201"/>
+      <c r="S50" s="159" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="283" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="139"/>
+      <c r="D51" s="160" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="161" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="117" t="s">
+        <v>190</v>
+      </c>
+      <c r="G51" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="98"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="118"/>
+      <c r="R51" s="202"/>
+      <c r="S51" s="142" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="283"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="119" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="203"/>
+      <c r="S52" s="145" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" ht="29" x14ac:dyDescent="0.2">
+      <c r="B53" s="283"/>
+      <c r="C53" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="162" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="G53" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="96"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="203"/>
+      <c r="S53" s="145" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="283"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="164" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="165" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="121"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="100"/>
+      <c r="P54" s="100"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="204"/>
+      <c r="S54" s="147" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="283"/>
+      <c r="C55" s="284" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="160" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="229" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="222">
+        <v>240</v>
+      </c>
+      <c r="G55" s="180">
+        <v>246</v>
+      </c>
+      <c r="H55" s="180"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="180"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="180"/>
+      <c r="N55" s="180"/>
+      <c r="O55" s="180"/>
+      <c r="P55" s="180"/>
+      <c r="Q55" s="217"/>
+      <c r="R55" s="220"/>
+      <c r="S55" s="214" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="283"/>
+      <c r="C56" s="284"/>
+      <c r="D56" s="175" t="s">
+        <v>235</v>
+      </c>
+      <c r="E56" s="230" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" s="223" t="s">
+        <v>233</v>
+      </c>
+      <c r="G56" s="181">
+        <f>IF(G55,(G55-F55)/G55*100,"")</f>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="H56" s="181" t="str">
+        <f t="shared" ref="H56:Q56" si="29">IF(H55,(H55-G55)/H55*100,"")</f>
+        <v/>
+      </c>
+      <c r="I56" s="181" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="J56" s="181" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K56" s="181" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L56" s="181" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="M56" s="181" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="N56" s="181" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="O56" s="181" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="P56" s="181" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="Q56" s="218" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="R56" s="251"/>
+      <c r="S56" s="241" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="283"/>
+      <c r="C57" s="284"/>
+      <c r="D57" s="162" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="231" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="224">
+        <v>187</v>
+      </c>
+      <c r="G57" s="174">
+        <v>193</v>
+      </c>
+      <c r="H57" s="174"/>
+      <c r="I57" s="174"/>
+      <c r="J57" s="174"/>
+      <c r="K57" s="174"/>
+      <c r="L57" s="174"/>
+      <c r="M57" s="174"/>
+      <c r="N57" s="174"/>
+      <c r="O57" s="174"/>
+      <c r="P57" s="174"/>
+      <c r="Q57" s="219"/>
+      <c r="R57" s="221"/>
+      <c r="S57" s="215" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="283"/>
+      <c r="C58" s="284"/>
+      <c r="D58" s="162" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" s="225" t="s">
+        <v>233</v>
+      </c>
+      <c r="G58" s="188">
+        <f>IF(G57,(G57-F57)/F57*100,"")</f>
+        <v>3.2085561497326207</v>
+      </c>
+      <c r="H58" s="188" t="str">
+        <f>IF(H57,(H57-G57)/G57*100,"")</f>
+        <v/>
+      </c>
+      <c r="I58" s="188" t="str">
+        <f t="shared" ref="I58:Q58" si="30">IF(I57,(I57-H57)/H57*100,"")</f>
+        <v/>
+      </c>
+      <c r="J58" s="188" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K58" s="188" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L58" s="188" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M58" s="188" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N58" s="188" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O58" s="188" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P58" s="188" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q58" s="233" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="R58" s="253"/>
+      <c r="S58" s="215" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="48" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="289"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="161" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="162" t="s">
+    <row r="59" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="283"/>
+      <c r="C59" s="284"/>
+      <c r="D59" s="162" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="120"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="110"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="205"/>
-      <c r="S48" s="163" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="289" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="164" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="165" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="G49" s="98" t="s">
-        <v>191</v>
-      </c>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="98"/>
-      <c r="L49" s="98"/>
-      <c r="M49" s="98"/>
-      <c r="N49" s="98"/>
-      <c r="O49" s="98"/>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="206"/>
-      <c r="S49" s="146" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="289"/>
-      <c r="C50" s="143"/>
-      <c r="D50" s="166" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="167" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="123" t="s">
-        <v>196</v>
-      </c>
-      <c r="G50" s="96" t="s">
-        <v>197</v>
-      </c>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="207"/>
-      <c r="S50" s="149" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" ht="29" x14ac:dyDescent="0.2">
-      <c r="B51" s="289"/>
-      <c r="C51" s="143" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="166" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="167" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="123" t="s">
-        <v>215</v>
-      </c>
-      <c r="G51" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="124"/>
-      <c r="R51" s="207"/>
-      <c r="S51" s="149" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="289"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="168" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="169" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="125"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="100"/>
-      <c r="N52" s="100"/>
-      <c r="O52" s="100"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="126"/>
-      <c r="R52" s="208"/>
-      <c r="S52" s="151" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="289"/>
-      <c r="C53" s="290" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="234" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="227">
-        <v>240</v>
-      </c>
-      <c r="G53" s="184">
-        <v>246</v>
-      </c>
-      <c r="H53" s="184"/>
-      <c r="I53" s="184"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="184"/>
-      <c r="L53" s="184"/>
-      <c r="M53" s="184"/>
-      <c r="N53" s="184"/>
-      <c r="O53" s="184"/>
-      <c r="P53" s="184"/>
-      <c r="Q53" s="222"/>
-      <c r="R53" s="225"/>
-      <c r="S53" s="219" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="289"/>
-      <c r="C54" s="290"/>
-      <c r="D54" s="179" t="s">
-        <v>237</v>
-      </c>
-      <c r="E54" s="235" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="228" t="s">
-        <v>235</v>
-      </c>
-      <c r="G54" s="185">
-        <f>IF(G53,(G53-F53)/F53*100,"")</f>
-        <v>2.5</v>
-      </c>
-      <c r="H54" s="185" t="str">
-        <f t="shared" ref="H54:Q54" si="1">IF(H53,(H53-G53)/G53*100,"")</f>
-        <v/>
-      </c>
-      <c r="I54" s="185" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J54" s="185" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K54" s="185" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L54" s="185" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M54" s="185" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N54" s="185" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O54" s="185" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P54" s="185" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q54" s="185" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R54" s="256"/>
-      <c r="S54" s="246" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="289"/>
-      <c r="C55" s="290"/>
-      <c r="D55" s="166" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="236" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="229">
-        <v>187</v>
-      </c>
-      <c r="G55" s="178">
-        <v>193</v>
-      </c>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="178"/>
-      <c r="K55" s="178"/>
-      <c r="L55" s="178"/>
-      <c r="M55" s="178"/>
-      <c r="N55" s="178"/>
-      <c r="O55" s="178"/>
-      <c r="P55" s="178"/>
-      <c r="Q55" s="224"/>
-      <c r="R55" s="226"/>
-      <c r="S55" s="220" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="289"/>
-      <c r="C56" s="290"/>
-      <c r="D56" s="166" t="s">
-        <v>236</v>
-      </c>
-      <c r="E56" s="236" t="s">
-        <v>234</v>
-      </c>
-      <c r="F56" s="230" t="s">
-        <v>235</v>
-      </c>
-      <c r="G56" s="192">
-        <f>IF(G55,(G55-F55)/F55*100,"")</f>
-        <v>3.2085561497326207</v>
-      </c>
-      <c r="H56" s="192" t="str">
-        <f>IF(H55,(H55-G55)/G55*100,"")</f>
-        <v/>
-      </c>
-      <c r="I56" s="192" t="str">
-        <f t="shared" ref="I56:Q56" si="2">IF(I55,(I55-H55)/H55*100,"")</f>
-        <v/>
-      </c>
-      <c r="J56" s="192" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K56" s="192" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L56" s="192" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M56" s="192" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N56" s="192" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O56" s="192" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P56" s="192" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q56" s="238" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R56" s="258"/>
-      <c r="S56" s="220" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="289"/>
-      <c r="C57" s="290"/>
-      <c r="D57" s="166" t="s">
-        <v>163</v>
-      </c>
-      <c r="E57" s="236" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="231"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="239"/>
-      <c r="R57" s="243"/>
-      <c r="S57" s="220" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="289"/>
-      <c r="C58" s="288" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="179" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="235" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" s="232" t="s">
-        <v>219</v>
-      </c>
-      <c r="G58" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="240"/>
-      <c r="R58" s="244"/>
-      <c r="S58" s="246" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B59" s="289"/>
-      <c r="C59" s="288"/>
-      <c r="D59" s="166" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="236" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="231" t="s">
-        <v>221</v>
-      </c>
-      <c r="G59" s="96" t="s">
-        <v>222</v>
-      </c>
+      <c r="F59" s="226"/>
+      <c r="G59" s="96"/>
       <c r="H59" s="96"/>
       <c r="I59" s="96"/>
       <c r="J59" s="96"/>
@@ -7090,56 +6362,58 @@
       <c r="N59" s="96"/>
       <c r="O59" s="96"/>
       <c r="P59" s="96"/>
-      <c r="Q59" s="239"/>
-      <c r="R59" s="243"/>
-      <c r="S59" s="220" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B60" s="289"/>
-      <c r="C60" s="288"/>
-      <c r="D60" s="166" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" s="236" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="231" t="s">
-        <v>205</v>
-      </c>
-      <c r="G60" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="96"/>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="239"/>
-      <c r="R60" s="243"/>
-      <c r="S60" s="220" t="s">
-        <v>168</v>
+      <c r="Q59" s="234"/>
+      <c r="R59" s="238"/>
+      <c r="S59" s="215" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="283"/>
+      <c r="C60" s="282" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="175" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="230" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="227" t="s">
+        <v>218</v>
+      </c>
+      <c r="G60" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="H60" s="97"/>
+      <c r="I60" s="97"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="97"/>
+      <c r="M60" s="97"/>
+      <c r="N60" s="97"/>
+      <c r="O60" s="97"/>
+      <c r="P60" s="97"/>
+      <c r="Q60" s="235"/>
+      <c r="R60" s="239"/>
+      <c r="S60" s="241" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B61" s="289"/>
-      <c r="C61" s="288"/>
-      <c r="D61" s="166" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="236" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="231" t="s">
-        <v>207</v>
+      <c r="B61" s="283"/>
+      <c r="C61" s="282"/>
+      <c r="D61" s="162" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="231" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="226" t="s">
+        <v>220</v>
       </c>
       <c r="G61" s="96" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="H61" s="96"/>
       <c r="I61" s="96"/>
@@ -7150,26 +6424,26 @@
       <c r="N61" s="96"/>
       <c r="O61" s="96"/>
       <c r="P61" s="96"/>
-      <c r="Q61" s="239"/>
-      <c r="R61" s="243"/>
-      <c r="S61" s="220" t="s">
-        <v>169</v>
+      <c r="Q61" s="234"/>
+      <c r="R61" s="238"/>
+      <c r="S61" s="215" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B62" s="289"/>
-      <c r="C62" s="288"/>
-      <c r="D62" s="166" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="236" t="s">
+      <c r="B62" s="283"/>
+      <c r="C62" s="282"/>
+      <c r="D62" s="162" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="231" t="s">
-        <v>208</v>
+      <c r="F62" s="226" t="s">
+        <v>205</v>
       </c>
       <c r="G62" s="96" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H62" s="96"/>
       <c r="I62" s="96"/>
@@ -7180,26 +6454,26 @@
       <c r="N62" s="96"/>
       <c r="O62" s="96"/>
       <c r="P62" s="96"/>
-      <c r="Q62" s="239"/>
-      <c r="R62" s="243"/>
-      <c r="S62" s="247" t="s">
-        <v>170</v>
+      <c r="Q62" s="234"/>
+      <c r="R62" s="238"/>
+      <c r="S62" s="215" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B63" s="289"/>
-      <c r="C63" s="288"/>
-      <c r="D63" s="166" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" s="236" t="s">
+      <c r="B63" s="283"/>
+      <c r="C63" s="282"/>
+      <c r="D63" s="162" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="231" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="231" t="s">
-        <v>210</v>
+      <c r="F63" s="226" t="s">
+        <v>207</v>
       </c>
       <c r="G63" s="96" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H63" s="96"/>
       <c r="I63" s="96"/>
@@ -7210,26 +6484,26 @@
       <c r="N63" s="96"/>
       <c r="O63" s="96"/>
       <c r="P63" s="96"/>
-      <c r="Q63" s="239"/>
-      <c r="R63" s="243"/>
-      <c r="S63" s="220" t="s">
-        <v>171</v>
+      <c r="Q63" s="234"/>
+      <c r="R63" s="238"/>
+      <c r="S63" s="215" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B64" s="289"/>
-      <c r="C64" s="288"/>
-      <c r="D64" s="166" t="s">
-        <v>54</v>
-      </c>
-      <c r="E64" s="236" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="231" t="s">
-        <v>212</v>
+      <c r="B64" s="283"/>
+      <c r="C64" s="282"/>
+      <c r="D64" s="162" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="231" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="226" t="s">
+        <v>208</v>
       </c>
       <c r="G64" s="96" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H64" s="96"/>
       <c r="I64" s="96"/>
@@ -7240,532 +6514,592 @@
       <c r="N64" s="96"/>
       <c r="O64" s="96"/>
       <c r="P64" s="96"/>
-      <c r="Q64" s="239"/>
-      <c r="R64" s="243"/>
-      <c r="S64" s="220" t="s">
+      <c r="Q64" s="234"/>
+      <c r="R64" s="238"/>
+      <c r="S64" s="242" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B65" s="283"/>
+      <c r="C65" s="282"/>
+      <c r="D65" s="162" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="231" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="226" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="96"/>
+      <c r="O65" s="96"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="234"/>
+      <c r="R65" s="238"/>
+      <c r="S65" s="215" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B66" s="283"/>
+      <c r="C66" s="282"/>
+      <c r="D66" s="162" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="231" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="226" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="234"/>
+      <c r="R66" s="238"/>
+      <c r="S66" s="215" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="289"/>
-      <c r="C65" s="288"/>
-      <c r="D65" s="168" t="s">
+    <row r="67" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="283"/>
+      <c r="C67" s="282"/>
+      <c r="D67" s="164" t="s">
         <v>173</v>
       </c>
-      <c r="E65" s="237" t="s">
+      <c r="E67" s="232" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="233"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="99"/>
-      <c r="L65" s="99"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="99"/>
-      <c r="O65" s="99"/>
-      <c r="P65" s="99"/>
-      <c r="Q65" s="241"/>
-      <c r="R65" s="245"/>
-      <c r="S65" s="221" t="s">
+      <c r="F67" s="228"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="99"/>
+      <c r="K67" s="99"/>
+      <c r="L67" s="99"/>
+      <c r="M67" s="99"/>
+      <c r="N67" s="99"/>
+      <c r="O67" s="99"/>
+      <c r="P67" s="99"/>
+      <c r="Q67" s="236"/>
+      <c r="R67" s="240"/>
+      <c r="S67" s="216" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="289"/>
-      <c r="C66" s="288" t="s">
+    <row r="68" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="283"/>
+      <c r="C68" s="282" t="s">
         <v>96</v>
       </c>
-      <c r="D66" s="164" t="s">
+      <c r="D68" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="E66" s="165" t="s">
+      <c r="E68" s="161" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="182">
+      <c r="F68" s="178">
         <v>2.5</v>
       </c>
-      <c r="G66" s="183">
+      <c r="G68" s="179">
         <v>2.7</v>
       </c>
-      <c r="H66" s="183"/>
-      <c r="I66" s="183"/>
-      <c r="J66" s="183"/>
-      <c r="K66" s="183"/>
-      <c r="L66" s="183"/>
-      <c r="M66" s="183"/>
-      <c r="N66" s="183"/>
-      <c r="O66" s="183"/>
-      <c r="P66" s="183"/>
-      <c r="Q66" s="248"/>
-      <c r="R66" s="254"/>
-      <c r="S66" s="146" t="s">
+      <c r="H68" s="179"/>
+      <c r="I68" s="179"/>
+      <c r="J68" s="179"/>
+      <c r="K68" s="179"/>
+      <c r="L68" s="179"/>
+      <c r="M68" s="179"/>
+      <c r="N68" s="179"/>
+      <c r="O68" s="179"/>
+      <c r="P68" s="179"/>
+      <c r="Q68" s="243"/>
+      <c r="R68" s="249"/>
+      <c r="S68" s="142" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="289"/>
-      <c r="C67" s="288"/>
-      <c r="D67" s="179" t="s">
+    <row r="69" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="283"/>
+      <c r="C69" s="282"/>
+      <c r="D69" s="175" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="176" t="s">
+        <v>232</v>
+      </c>
+      <c r="F69" s="175" t="s">
+        <v>233</v>
+      </c>
+      <c r="G69" s="181">
+        <f>IF(G68,G68-F68,"")</f>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="H69" s="181" t="str">
+        <f t="shared" ref="H69:Q69" si="31">IF(H68,H68-G68,"")</f>
+        <v/>
+      </c>
+      <c r="I69" s="181" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="J69" s="181" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="K69" s="181" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L69" s="181" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="M69" s="181" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="N69" s="181" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="O69" s="181" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="P69" s="181" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Q69" s="218" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="R69" s="251"/>
+      <c r="S69" s="177" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B70" s="283"/>
+      <c r="C70" s="282"/>
+      <c r="D70" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70" s="183">
+        <v>56</v>
+      </c>
+      <c r="G70" s="184">
+        <v>58</v>
+      </c>
+      <c r="H70" s="184"/>
+      <c r="I70" s="184"/>
+      <c r="J70" s="184"/>
+      <c r="K70" s="184"/>
+      <c r="L70" s="184"/>
+      <c r="M70" s="184"/>
+      <c r="N70" s="184"/>
+      <c r="O70" s="184"/>
+      <c r="P70" s="184"/>
+      <c r="Q70" s="244"/>
+      <c r="R70" s="237"/>
+      <c r="S70" s="145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B71" s="283"/>
+      <c r="C71" s="282"/>
+      <c r="D71" s="162" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71" s="163" t="s">
+        <v>232</v>
+      </c>
+      <c r="F71" s="187" t="s">
+        <v>233</v>
+      </c>
+      <c r="G71" s="188">
+        <f>IF(G70,G70-F70,"")</f>
+        <v>2</v>
+      </c>
+      <c r="H71" s="188" t="str">
+        <f t="shared" ref="H71:Q71" si="32">IF(H70,H70-G70,"")</f>
+        <v/>
+      </c>
+      <c r="I71" s="188" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J71" s="188" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K71" s="188" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L71" s="188" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M71" s="188" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="N71" s="188" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="O71" s="188" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="P71" s="188" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="Q71" s="233" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="R71" s="237"/>
+      <c r="S71" s="145" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B72" s="283"/>
+      <c r="C72" s="282"/>
+      <c r="D72" s="162" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72" s="185">
+        <v>132</v>
+      </c>
+      <c r="G72" s="186">
+        <v>107</v>
+      </c>
+      <c r="H72" s="186"/>
+      <c r="I72" s="186"/>
+      <c r="J72" s="186"/>
+      <c r="K72" s="186"/>
+      <c r="L72" s="186"/>
+      <c r="M72" s="186"/>
+      <c r="N72" s="186"/>
+      <c r="O72" s="186"/>
+      <c r="P72" s="186"/>
+      <c r="Q72" s="245"/>
+      <c r="R72" s="250"/>
+      <c r="S72" s="145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B73" s="283"/>
+      <c r="C73" s="282"/>
+      <c r="D73" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="E67" s="180" t="s">
-        <v>234</v>
-      </c>
-      <c r="F67" s="179" t="s">
-        <v>235</v>
-      </c>
-      <c r="G67" s="185">
-        <f>IF(G66,G66-F66,"")</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="H67" s="185" t="str">
-        <f t="shared" ref="H67:Q67" si="3">IF(H66,H66-G66,"")</f>
-        <v/>
-      </c>
-      <c r="I67" s="185" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J67" s="185" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K67" s="185" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L67" s="185" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M67" s="185" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N67" s="185" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O67" s="185" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P67" s="185" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q67" s="223" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R67" s="256"/>
-      <c r="S67" s="181" t="s">
+      <c r="E73" s="163" t="s">
+        <v>232</v>
+      </c>
+      <c r="F73" s="187" t="s">
+        <v>233</v>
+      </c>
+      <c r="G73" s="188">
+        <f>IF(G72,(G72-F72)/F72*100,"")</f>
+        <v>-18.939393939393938</v>
+      </c>
+      <c r="H73" s="188" t="str">
+        <f t="shared" ref="H73:Q73" si="33">IF(H72,(H72-G72)/G72*100,"")</f>
+        <v/>
+      </c>
+      <c r="I73" s="188" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J73" s="188" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K73" s="188" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L73" s="188" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M73" s="188" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N73" s="188" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O73" s="188" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P73" s="188" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q73" s="233" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="R73" s="253"/>
+      <c r="S73" s="145" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B68" s="289"/>
-      <c r="C68" s="288"/>
-      <c r="D68" s="166" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" s="167" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="187">
-        <v>56</v>
-      </c>
-      <c r="G68" s="188">
+    <row r="74" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B74" s="283"/>
+      <c r="C74" s="282"/>
+      <c r="D74" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="188"/>
-      <c r="I68" s="188"/>
-      <c r="J68" s="188"/>
-      <c r="K68" s="188"/>
-      <c r="L68" s="188"/>
-      <c r="M68" s="188"/>
-      <c r="N68" s="188"/>
-      <c r="O68" s="188"/>
-      <c r="P68" s="188"/>
-      <c r="Q68" s="249"/>
-      <c r="R68" s="242"/>
-      <c r="S68" s="149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B69" s="289"/>
-      <c r="C69" s="288"/>
-      <c r="D69" s="166" t="s">
+      <c r="E74" s="163" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="185">
+        <v>98</v>
+      </c>
+      <c r="G74" s="186">
+        <v>114</v>
+      </c>
+      <c r="H74" s="186"/>
+      <c r="I74" s="186"/>
+      <c r="J74" s="186"/>
+      <c r="K74" s="186"/>
+      <c r="L74" s="186"/>
+      <c r="M74" s="186"/>
+      <c r="N74" s="186"/>
+      <c r="O74" s="186"/>
+      <c r="P74" s="186"/>
+      <c r="Q74" s="245"/>
+      <c r="R74" s="250"/>
+      <c r="S74" s="145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B75" s="283"/>
+      <c r="C75" s="282"/>
+      <c r="D75" s="162" t="s">
         <v>239</v>
       </c>
-      <c r="E69" s="167" t="s">
-        <v>234</v>
-      </c>
-      <c r="F69" s="191" t="s">
-        <v>235</v>
-      </c>
-      <c r="G69" s="192">
-        <f>IF(G68,G68-F68,"")</f>
-        <v>2</v>
-      </c>
-      <c r="H69" s="192" t="str">
-        <f t="shared" ref="H69:Q69" si="4">IF(H68,H68-G68,"")</f>
-        <v/>
-      </c>
-      <c r="I69" s="192" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J69" s="192" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K69" s="192" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L69" s="192" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M69" s="192" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N69" s="192" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O69" s="192" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P69" s="192" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q69" s="238" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="R69" s="242"/>
-      <c r="S69" s="149" t="s">
+      <c r="E75" s="163" t="s">
+        <v>232</v>
+      </c>
+      <c r="F75" s="189" t="s">
+        <v>233</v>
+      </c>
+      <c r="G75" s="190">
+        <f>IF(G74,(G74-F74)/F74*100,"")</f>
+        <v>16.326530612244898</v>
+      </c>
+      <c r="H75" s="190" t="str">
+        <f t="shared" ref="H75:Q75" si="34">IF(H74,(H74-G74)/G74*100,"")</f>
+        <v/>
+      </c>
+      <c r="I75" s="190" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J75" s="190" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K75" s="190" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L75" s="190" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M75" s="190" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="N75" s="190" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="O75" s="190" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="P75" s="190" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="Q75" s="246" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="R75" s="254"/>
+      <c r="S75" s="145" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B70" s="289"/>
-      <c r="C70" s="288"/>
-      <c r="D70" s="166" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" s="167" t="s">
+    <row r="76" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B76" s="283"/>
+      <c r="C76" s="282"/>
+      <c r="D76" s="162" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="163" t="s">
         <v>106</v>
       </c>
-      <c r="F70" s="189">
-        <v>132</v>
-      </c>
-      <c r="G70" s="190">
-        <v>107</v>
-      </c>
-      <c r="H70" s="190"/>
-      <c r="I70" s="190"/>
-      <c r="J70" s="190"/>
-      <c r="K70" s="190"/>
-      <c r="L70" s="190"/>
-      <c r="M70" s="190"/>
-      <c r="N70" s="190"/>
-      <c r="O70" s="190"/>
-      <c r="P70" s="190"/>
-      <c r="Q70" s="250"/>
-      <c r="R70" s="255"/>
-      <c r="S70" s="149" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B71" s="289"/>
-      <c r="C71" s="288"/>
-      <c r="D71" s="166" t="s">
+      <c r="F76" s="185">
+        <v>17</v>
+      </c>
+      <c r="G76" s="186">
+        <v>42</v>
+      </c>
+      <c r="H76" s="186"/>
+      <c r="I76" s="186"/>
+      <c r="J76" s="186"/>
+      <c r="K76" s="186"/>
+      <c r="L76" s="186"/>
+      <c r="M76" s="186"/>
+      <c r="N76" s="186"/>
+      <c r="O76" s="186"/>
+      <c r="P76" s="186"/>
+      <c r="Q76" s="245"/>
+      <c r="R76" s="250"/>
+      <c r="S76" s="145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="B77" s="283"/>
+      <c r="C77" s="282"/>
+      <c r="D77" s="166" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="167" t="s">
-        <v>234</v>
-      </c>
-      <c r="F71" s="191" t="s">
-        <v>235</v>
-      </c>
-      <c r="G71" s="192">
-        <f>IF(G70,(G70-F70)/F70*100,"")</f>
-        <v>-18.939393939393938</v>
-      </c>
-      <c r="H71" s="192" t="str">
-        <f t="shared" ref="H71:Q71" si="5">IF(H70,(H70-G70)/G70*100,"")</f>
-        <v/>
-      </c>
-      <c r="I71" s="192" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J71" s="192" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K71" s="192" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L71" s="192" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M71" s="192" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N71" s="192" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O71" s="192" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P71" s="192" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q71" s="238" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R71" s="258"/>
-      <c r="S71" s="149" t="s">
+      <c r="E77" s="167" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" s="191" t="s">
+        <v>233</v>
+      </c>
+      <c r="G77" s="192">
+        <f>IF(G76,(G76-F76)/F76*100,"")</f>
+        <v>147.05882352941177</v>
+      </c>
+      <c r="H77" s="192" t="str">
+        <f t="shared" ref="H77:Q77" si="35">IF(H76,(H76-G76)/G76*100,"")</f>
+        <v/>
+      </c>
+      <c r="I77" s="192" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J77" s="192" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K77" s="192" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L77" s="192" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M77" s="192" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N77" s="192" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O77" s="192" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P77" s="192" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q77" s="247" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="R77" s="255"/>
+      <c r="S77" s="159" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B72" s="289"/>
-      <c r="C72" s="288"/>
-      <c r="D72" s="166" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="167" t="s">
-        <v>106</v>
-      </c>
-      <c r="F72" s="189">
-        <v>98</v>
-      </c>
-      <c r="G72" s="190">
-        <v>114</v>
-      </c>
-      <c r="H72" s="190"/>
-      <c r="I72" s="190"/>
-      <c r="J72" s="190"/>
-      <c r="K72" s="190"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="190"/>
-      <c r="N72" s="190"/>
-      <c r="O72" s="190"/>
-      <c r="P72" s="190"/>
-      <c r="Q72" s="250"/>
-      <c r="R72" s="255"/>
-      <c r="S72" s="149" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B73" s="289"/>
-      <c r="C73" s="288"/>
-      <c r="D73" s="166" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="167" t="s">
-        <v>234</v>
-      </c>
-      <c r="F73" s="193" t="s">
-        <v>235</v>
-      </c>
-      <c r="G73" s="194">
-        <f>IF(G72,(G72-F72)/F72*100,"")</f>
-        <v>16.326530612244898</v>
-      </c>
-      <c r="H73" s="194" t="str">
-        <f t="shared" ref="H73:Q73" si="6">IF(H72,(H72-G72)/G72*100,"")</f>
-        <v/>
-      </c>
-      <c r="I73" s="194" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J73" s="194" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K73" s="194" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L73" s="194" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M73" s="194" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N73" s="194" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O73" s="194" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P73" s="194" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q73" s="251" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R73" s="259"/>
-      <c r="S73" s="149" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="74" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B74" s="289"/>
-      <c r="C74" s="288"/>
-      <c r="D74" s="166" t="s">
-        <v>60</v>
-      </c>
-      <c r="E74" s="167" t="s">
-        <v>106</v>
-      </c>
-      <c r="F74" s="189">
-        <v>17</v>
-      </c>
-      <c r="G74" s="190">
-        <v>42</v>
-      </c>
-      <c r="H74" s="190"/>
-      <c r="I74" s="190"/>
-      <c r="J74" s="190"/>
-      <c r="K74" s="190"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="190"/>
-      <c r="N74" s="190"/>
-      <c r="O74" s="190"/>
-      <c r="P74" s="190"/>
-      <c r="Q74" s="250"/>
-      <c r="R74" s="255"/>
-      <c r="S74" s="149" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="2:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="B75" s="289"/>
-      <c r="C75" s="288"/>
-      <c r="D75" s="170" t="s">
-        <v>242</v>
-      </c>
-      <c r="E75" s="171" t="s">
-        <v>234</v>
-      </c>
-      <c r="F75" s="195" t="s">
-        <v>235</v>
-      </c>
-      <c r="G75" s="196">
-        <f>IF(G74,(G74-F74)/F74*100,"")</f>
-        <v>147.05882352941177</v>
-      </c>
-      <c r="H75" s="196" t="str">
-        <f t="shared" ref="H75:Q75" si="7">IF(H74,(H74-G74)/G74*100,"")</f>
-        <v/>
-      </c>
-      <c r="I75" s="196" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J75" s="196" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K75" s="196" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L75" s="196" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M75" s="196" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N75" s="196" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O75" s="196" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P75" s="196" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Q75" s="252" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="R75" s="260"/>
-      <c r="S75" s="163" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="76" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="289"/>
-      <c r="C76" s="288"/>
-      <c r="D76" s="168" t="s">
+    <row r="78" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="283"/>
+      <c r="C78" s="282"/>
+      <c r="D78" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="E76" s="169" t="s">
+      <c r="E78" s="165" t="s">
         <v>110</v>
       </c>
-      <c r="F76" s="125"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="100"/>
-      <c r="L76" s="100"/>
-      <c r="M76" s="100"/>
-      <c r="N76" s="100"/>
-      <c r="O76" s="100"/>
-      <c r="P76" s="100"/>
-      <c r="Q76" s="253"/>
-      <c r="R76" s="245"/>
-      <c r="S76" s="151" t="s">
+      <c r="F78" s="121"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="100"/>
+      <c r="J78" s="100"/>
+      <c r="K78" s="100"/>
+      <c r="L78" s="100"/>
+      <c r="M78" s="100"/>
+      <c r="N78" s="100"/>
+      <c r="O78" s="100"/>
+      <c r="P78" s="100"/>
+      <c r="Q78" s="248"/>
+      <c r="R78" s="240"/>
+      <c r="S78" s="147" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="8">
-    <mergeCell ref="C66:C76"/>
-    <mergeCell ref="B49:B76"/>
-    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="B51:B78"/>
+    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B48"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="B12:B50"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C60:C67"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7778,21 +7112,23 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7934,26 +7270,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D4D38A4-2CFA-4926-B88B-031C7516ABBB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3827F29F-591D-484A-8416-337E55D6B0AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="73d8284b-a534-43fa-a643-57b2bbd33759"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7977,9 +7302,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3827F29F-591D-484A-8416-337E55D6B0AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D4D38A4-2CFA-4926-B88B-031C7516ABBB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="73d8284b-a534-43fa-a643-57b2bbd33759"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>